--- a/tests/indicators/a-d/BaseQuote/BaseQuotes.Calc.xlsx
+++ b/tests/indicators/a-d/BaseQuote/BaseQuotes.Calc.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796E694B-F567-4B59-B0FA-9C5A32F8116E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E314C0-D377-4359-9998-E569A7ACA221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Default" sheetId="1" r:id="rId1"/>
+    <sheet name="Basic" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,9 +45,6 @@
     <t>volume</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>HL2</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   <si>
     <t>OHLC4</t>
   </si>
+  <si>
+    <t>i</t>
+  </si>
 </sst>
 </file>
 
@@ -72,7 +72,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -576,20 +576,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="1" fillId="32" borderId="0" xfId="43" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="32" borderId="0" xfId="43" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="32" borderId="0" xfId="43" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="32" borderId="0" xfId="43" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -657,7 +657,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="173" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -677,7 +677,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="173" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -697,7 +697,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="173" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -717,7 +717,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="173" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -737,7 +737,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="173" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -917,7 +917,7 @@
     <sortCondition ref="B2"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="index" dataDxfId="11" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="i" dataDxfId="11" dataCellStyle="Currency"/>
     <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{EF611352-AF5A-4141-B3FC-D86820A763EA}" name="open" dataDxfId="9" dataCellStyle="Currency"/>
     <tableColumn id="4" xr3:uid="{74B28648-F2A3-4493-9B04-FE02A7EBAE5E}" name="high" dataDxfId="8" dataCellStyle="Currency"/>
@@ -1250,7 +1250,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -1260,7 +1260,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1281,19 +1281,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
